--- a/APP.xlsx
+++ b/APP.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CDEF93C-1DAD-4817-88B5-856702041D6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B61E499-88DD-461F-8BE2-FB4C13A679C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26190" yWindow="2175" windowWidth="25215" windowHeight="16575" xr2:uid="{9D3513DD-3418-4219-8827-A91F6C35E82B}"/>
+    <workbookView xWindow="16180" yWindow="2920" windowWidth="21900" windowHeight="14640" activeTab="1" xr2:uid="{9D3513DD-3418-4219-8827-A91F6C35E82B}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
   <si>
     <t>Price</t>
   </si>
@@ -121,6 +121,27 @@
   </si>
   <si>
     <t>EPS</t>
+  </si>
+  <si>
+    <t>Q125</t>
+  </si>
+  <si>
+    <t>Q225</t>
+  </si>
+  <si>
+    <t>Q325</t>
+  </si>
+  <si>
+    <t>Q425</t>
+  </si>
+  <si>
+    <t>Revenue y/y</t>
+  </si>
+  <si>
+    <t>Apps</t>
+  </si>
+  <si>
+    <t>Ads</t>
   </si>
 </sst>
 </file>
@@ -170,7 +191,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -188,6 +209,13 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -206,6 +234,61 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>30079</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>43447</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>30079</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>3342</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ADD647D5-FB81-9CB8-CC54-A6CE301CFBF7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6784474" y="43447"/>
+          <a:ext cx="0" cy="5100053"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -527,19 +610,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F8FB4EB-6472-46BD-A0D3-B5A7B85DE441}">
   <dimension ref="J2:L7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="10:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J2" t="s">
         <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="3" spans="10:12" x14ac:dyDescent="0.2">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="3" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J3" t="s">
         <v>1</v>
       </c>
@@ -551,16 +634,16 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="10:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J4" t="s">
         <v>2</v>
       </c>
       <c r="K4" s="2">
         <f>+K2*K3</f>
-        <v>114772.39696800002</v>
-      </c>
-    </row>
-    <row r="5" spans="10:12" x14ac:dyDescent="0.2">
+        <v>127524.88552000001</v>
+      </c>
+    </row>
+    <row r="5" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J5" t="s">
         <v>3</v>
       </c>
@@ -571,7 +654,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="10:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J6" t="s">
         <v>4</v>
       </c>
@@ -582,13 +665,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="10:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J7" t="s">
         <v>5</v>
       </c>
       <c r="K7" s="2">
         <f>+K4-K5+K6</f>
-        <v>117679.25696800002</v>
+        <v>130431.74552000001</v>
       </c>
     </row>
   </sheetData>
@@ -598,28 +681,28 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D786880E-57D9-4582-ABFA-84647DFD24DC}">
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:N25"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I21" sqref="I21"/>
+      <selection pane="bottomRight" activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="10" width="9.140625" style="3"/>
+    <col min="2" max="2" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="10" width="9.1796875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C2" s="3" t="s">
         <v>9</v>
       </c>
@@ -644,295 +727,449 @@
       <c r="J2" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7">
-        <v>864.25599999999997</v>
-      </c>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7">
-        <v>1198.2349999999999</v>
-      </c>
-      <c r="J3" s="7"/>
-    </row>
-    <row r="4" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5">
+        <v>576.48900000000003</v>
+      </c>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5">
+        <v>999.48699999999997</v>
+      </c>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+    </row>
+    <row r="4" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
-      <c r="E4" s="5">
-        <v>265.04899999999998</v>
-      </c>
-      <c r="F4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5">
+        <v>376.77199999999999</v>
+      </c>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
-      <c r="I4" s="5">
-        <v>269.65899999999999</v>
-      </c>
-      <c r="J4" s="5"/>
-    </row>
-    <row r="5" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5">
-        <f>+E3-E4</f>
-        <v>599.20699999999999</v>
-      </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5">
-        <f>+I3-I4</f>
-        <v>928.57599999999991</v>
-      </c>
-      <c r="J5" s="5"/>
-    </row>
-    <row r="6" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I4" s="5"/>
+      <c r="J4" s="5">
+        <v>373.29199999999997</v>
+      </c>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+    </row>
+    <row r="5" spans="1:14" s="6" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="B5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7">
+        <v>864.25599999999997</v>
+      </c>
+      <c r="F5" s="7">
+        <v>953.26099999999997</v>
+      </c>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7">
+        <v>1198.2349999999999</v>
+      </c>
+      <c r="J5" s="7">
+        <v>1372.779</v>
+      </c>
+      <c r="K5" s="6">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5">
-        <v>212.352</v>
-      </c>
-      <c r="F6" s="5"/>
+        <v>265.04899999999998</v>
+      </c>
+      <c r="F6" s="5">
+        <v>273.60700000000003</v>
+      </c>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
       <c r="I6" s="5">
-        <v>205.75299999999999</v>
-      </c>
-      <c r="J6" s="5"/>
-    </row>
-    <row r="7" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>269.65899999999999</v>
+      </c>
+      <c r="J6" s="5">
+        <v>320.452</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5">
-        <v>159.28800000000001</v>
-      </c>
-      <c r="F7" s="5"/>
+        <f>+E5-E6</f>
+        <v>599.20699999999999</v>
+      </c>
+      <c r="F7" s="5">
+        <f>+F5-F6</f>
+        <v>679.654</v>
+      </c>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
       <c r="I7" s="5">
-        <v>149.99</v>
-      </c>
-      <c r="J7" s="5"/>
-    </row>
-    <row r="8" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <f>+I5-I6</f>
+        <v>928.57599999999991</v>
+      </c>
+      <c r="J7" s="5">
+        <f>+J5-J6</f>
+        <v>1052.327</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5">
-        <v>41.249000000000002</v>
-      </c>
-      <c r="F8" s="5"/>
+        <v>212.352</v>
+      </c>
+      <c r="F8" s="5">
+        <v>222.96299999999999</v>
+      </c>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
       <c r="I8" s="5">
-        <v>37.899000000000001</v>
-      </c>
-      <c r="J8" s="5"/>
-    </row>
-    <row r="9" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>205.75299999999999</v>
+      </c>
+      <c r="J8" s="5">
+        <v>214.66200000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5">
-        <f>+E8+E7+E6</f>
-        <v>412.88900000000001</v>
-      </c>
-      <c r="F9" s="5"/>
+        <v>159.28800000000001</v>
+      </c>
+      <c r="F9" s="5">
+        <v>150.82300000000001</v>
+      </c>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
       <c r="I9" s="5">
-        <f>+I8+I7+I6</f>
-        <v>393.642</v>
-      </c>
-      <c r="J9" s="5"/>
-    </row>
-    <row r="10" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>149.99</v>
+      </c>
+      <c r="J9" s="5">
+        <v>169.48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5">
-        <f>+E5-E9</f>
-        <v>186.31799999999998</v>
-      </c>
-      <c r="F10" s="5"/>
+        <v>41.249000000000002</v>
+      </c>
+      <c r="F10" s="5">
+        <v>36.353999999999999</v>
+      </c>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
       <c r="I10" s="5">
-        <f>+I5-I9</f>
-        <v>534.93399999999997</v>
-      </c>
-      <c r="J10" s="5"/>
-    </row>
-    <row r="11" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>37.899000000000001</v>
+      </c>
+      <c r="J10" s="5">
+        <v>60.204999999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5">
-        <v>-77.093000000000004</v>
-      </c>
-      <c r="F11" s="5"/>
+        <f>+E10+E9+E8</f>
+        <v>412.88900000000001</v>
+      </c>
+      <c r="F11" s="5">
+        <f>+F10+F9+F8</f>
+        <v>410.14</v>
+      </c>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
       <c r="I11" s="5">
-        <f>-75.213+7.948</f>
-        <v>-67.264999999999986</v>
-      </c>
-      <c r="J11" s="5"/>
-    </row>
-    <row r="12" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <f>+I10+I9+I8</f>
+        <v>393.642</v>
+      </c>
+      <c r="J11" s="5">
+        <f>+J10+J9+J8</f>
+        <v>444.34699999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5">
-        <f>+E10+E11</f>
-        <v>109.22499999999998</v>
-      </c>
-      <c r="F12" s="5"/>
+        <f>+E7-E11</f>
+        <v>186.31799999999998</v>
+      </c>
+      <c r="F12" s="5">
+        <f>+F7-F11</f>
+        <v>269.51400000000001</v>
+      </c>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
       <c r="I12" s="5">
-        <f>+I10+I11</f>
-        <v>467.66899999999998</v>
-      </c>
-      <c r="J12" s="5"/>
-    </row>
-    <row r="13" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <f>+I7-I11</f>
+        <v>534.93399999999997</v>
+      </c>
+      <c r="J12" s="5">
+        <f>+J7-J11</f>
+        <v>607.98</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5">
-        <v>0.58599999999999997</v>
-      </c>
-      <c r="F13" s="5"/>
+        <v>-77.093000000000004</v>
+      </c>
+      <c r="F13" s="5">
+        <v>-71.584000000000003</v>
+      </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5">
-        <v>33.249000000000002</v>
-      </c>
-      <c r="J13" s="5"/>
-    </row>
-    <row r="14" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <f>-75.213+7.948</f>
+        <v>-67.264999999999986</v>
+      </c>
+      <c r="J13" s="5">
+        <f>-94.199+1.343</f>
+        <v>-92.855999999999995</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5">
-        <f>+E12-E13</f>
-        <v>108.63899999999998</v>
-      </c>
-      <c r="F14" s="5"/>
+        <f>+E12+E13</f>
+        <v>109.22499999999998</v>
+      </c>
+      <c r="F14" s="5">
+        <f>+F12+F13</f>
+        <v>197.93</v>
+      </c>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
       <c r="I14" s="5">
-        <f>+I12-I13</f>
-        <v>434.41999999999996</v>
-      </c>
-      <c r="J14" s="5"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+        <f>+I12+I13</f>
+        <v>467.66899999999998</v>
+      </c>
+      <c r="J14" s="5">
+        <f>+J12+J13</f>
+        <v>515.12400000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E15" s="4">
-        <f>+E14/E16</f>
-        <v>0.30439088282411614</v>
-      </c>
-      <c r="I15" s="4">
-        <f>+I14/I16</f>
-        <v>1.2475250840573942</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5">
+        <v>0.58599999999999997</v>
+      </c>
+      <c r="F15" s="5">
+        <v>6.6630000000000003</v>
+      </c>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5">
+        <v>33.249000000000002</v>
+      </c>
+      <c r="J15" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5">
-        <v>356.90622200000001</v>
-      </c>
-      <c r="F16" s="5"/>
+        <f>+E14-E15</f>
+        <v>108.63899999999998</v>
+      </c>
+      <c r="F16" s="5">
+        <f>+F14-F15</f>
+        <v>191.267</v>
+      </c>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
       <c r="I16" s="5">
+        <f>+I14-I15</f>
+        <v>434.41999999999996</v>
+      </c>
+      <c r="J16" s="5">
+        <f>+J14-J15</f>
+        <v>515.12400000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B17" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="4">
+        <f>+E16/E18</f>
+        <v>0.30439088282411614</v>
+      </c>
+      <c r="F17" s="4">
+        <f>+F16/F18</f>
+        <v>0.55042130466312889</v>
+      </c>
+      <c r="I17" s="4">
+        <f>+I16/I18</f>
+        <v>1.2475250840573942</v>
+      </c>
+      <c r="J17" s="4">
+        <f>+J16/J18</f>
+        <v>1.4869761506719363</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5">
+        <v>356.90622200000001</v>
+      </c>
+      <c r="F18" s="5">
+        <v>347.49200000000002</v>
+      </c>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5">
         <v>348.22546299999999</v>
       </c>
-      <c r="J16" s="5"/>
-    </row>
-    <row r="19" spans="3:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5">
-        <f>1398.008-H19-G19</f>
+      <c r="J18" s="5">
+        <v>346.42384800000002</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" s="11" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="B20" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="10">
+        <f>+I5/E5-1</f>
+        <v>0.38643526917950233</v>
+      </c>
+      <c r="J20" s="10">
+        <f>+J5/F5-1</f>
+        <v>0.44008723738829136</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5">
+        <f>1398.008-H23-G23</f>
         <v>1398.008</v>
       </c>
-      <c r="J19" s="5"/>
-    </row>
-    <row r="20" spans="3:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5">
-        <f>-18.289-H20-G20</f>
+      <c r="J23" s="5">
+        <f>2099.011-I23-H23-G23</f>
+        <v>701.00299999999993</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5">
+        <f>-18.289-H24-G24</f>
         <v>-18.289000000000001</v>
       </c>
-      <c r="J20" s="5"/>
-    </row>
-    <row r="21" spans="3:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5">
-        <f>+I19+I20</f>
+      <c r="J24" s="5"/>
+    </row>
+    <row r="25" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5">
+        <f>+I23+I24</f>
         <v>1379.7190000000001</v>
       </c>
-      <c r="J21" s="5"/>
+      <c r="J25" s="5">
+        <f>+J23+J24</f>
+        <v>701.00299999999993</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{00BC675E-771E-402D-B12F-64736781FF04}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/APP.xlsx
+++ b/APP.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B61E499-88DD-461F-8BE2-FB4C13A679C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{025AE905-E6B3-47B2-A7FC-4CE056ACD9B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16180" yWindow="2920" windowWidth="21900" windowHeight="14640" activeTab="1" xr2:uid="{9D3513DD-3418-4219-8827-A91F6C35E82B}"/>
+    <workbookView xWindow="23230" yWindow="1680" windowWidth="14670" windowHeight="15600" activeTab="1" xr2:uid="{9D3513DD-3418-4219-8827-A91F6C35E82B}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="39">
   <si>
     <t>Price</t>
   </si>
@@ -142,6 +142,18 @@
   </si>
   <si>
     <t>Ads</t>
+  </si>
+  <si>
+    <t>CFFO</t>
+  </si>
+  <si>
+    <t>CX</t>
+  </si>
+  <si>
+    <t>FCF</t>
+  </si>
+  <si>
+    <t>CFFO margin</t>
   </si>
 </sst>
 </file>
@@ -191,7 +203,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -216,6 +228,8 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -610,7 +624,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F8FB4EB-6472-46BD-A0D3-B5A7B85DE441}">
   <dimension ref="J2:L7"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -619,7 +633,7 @@
         <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>380</v>
+        <v>295</v>
       </c>
     </row>
     <row r="3" spans="10:12" x14ac:dyDescent="0.25">
@@ -640,7 +654,7 @@
       </c>
       <c r="K4" s="2">
         <f>+K2*K3</f>
-        <v>127524.88552000001</v>
+        <v>98999.582180000012</v>
       </c>
     </row>
     <row r="5" spans="10:12" x14ac:dyDescent="0.25">
@@ -671,7 +685,7 @@
       </c>
       <c r="K7" s="2">
         <f>+K4-K5+K6</f>
-        <v>130431.74552000001</v>
+        <v>101906.44218000001</v>
       </c>
     </row>
   </sheetData>
@@ -681,13 +695,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D786880E-57D9-4582-ABFA-84647DFD24DC}">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:CF30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="P3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="N9" sqref="N9"/>
+      <selection pane="bottomRight" activeCell="X3" sqref="X3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -695,14 +709,19 @@
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.1796875" bestFit="1" customWidth="1"/>
     <col min="3" max="10" width="9.1796875" style="3"/>
+    <col min="20" max="20" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.26953125" customWidth="1"/>
+    <col min="28" max="28" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="11.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C2" s="3" t="s">
         <v>9</v>
       </c>
@@ -739,8 +758,17 @@
       <c r="N2" s="3" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Q2">
+        <v>2023</v>
+      </c>
+      <c r="R2">
+        <v>2024</v>
+      </c>
+      <c r="S2">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>34</v>
       </c>
@@ -761,7 +789,7 @@
       <c r="M3" s="5"/>
       <c r="N3" s="5"/>
     </row>
-    <row r="4" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>33</v>
       </c>
@@ -782,20 +810,28 @@
       <c r="M4" s="5"/>
       <c r="N4" s="5"/>
     </row>
-    <row r="5" spans="1:14" s="6" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" s="6" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
+      <c r="C5" s="7">
+        <v>715.40499999999997</v>
+      </c>
+      <c r="D5" s="7">
+        <v>750.16499999999996</v>
+      </c>
       <c r="E5" s="7">
         <v>864.25599999999997</v>
       </c>
       <c r="F5" s="7">
         <v>953.26099999999997</v>
       </c>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
+      <c r="G5" s="7">
+        <v>1058.115</v>
+      </c>
+      <c r="H5" s="7">
+        <v>1080.1189999999999</v>
+      </c>
       <c r="I5" s="7">
         <v>1198.2349999999999</v>
       </c>
@@ -805,13 +841,39 @@
       <c r="K5" s="6">
         <v>1390</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L5" s="6">
+        <f>+H5*1.3</f>
+        <v>1404.1547</v>
+      </c>
+      <c r="M5" s="6">
+        <f>+I5*1.29</f>
+        <v>1545.7231499999998</v>
+      </c>
+      <c r="N5" s="6">
+        <f>+J5*1.28</f>
+        <v>1757.1571200000001</v>
+      </c>
+      <c r="Q5" s="6">
+        <f>SUM(C5:F5)</f>
+        <v>3283.087</v>
+      </c>
+      <c r="R5" s="6">
+        <f>SUM(G5:J5)</f>
+        <v>4709.2479999999996</v>
+      </c>
+      <c r="S5" s="6">
+        <f>SUM(K5:N5)</f>
+        <v>6097.0349699999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
+      <c r="D6" s="5">
+        <v>258.57499999999999</v>
+      </c>
       <c r="E6" s="5">
         <v>265.04899999999998</v>
       </c>
@@ -819,7 +881,9 @@
         <v>273.60700000000003</v>
       </c>
       <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
+      <c r="H6" s="5">
+        <v>282.54700000000003</v>
+      </c>
       <c r="I6" s="5">
         <v>269.65899999999999</v>
       </c>
@@ -827,12 +891,15 @@
         <v>320.452</v>
       </c>
     </row>
-    <row r="7" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
+      <c r="D7" s="5">
+        <f>+D5-D6</f>
+        <v>491.59</v>
+      </c>
       <c r="E7" s="5">
         <f>+E5-E6</f>
         <v>599.20699999999999</v>
@@ -842,7 +909,10 @@
         <v>679.654</v>
       </c>
       <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
+      <c r="H7" s="5">
+        <f>+H5-H6</f>
+        <v>797.57199999999989</v>
+      </c>
       <c r="I7" s="5">
         <f>+I5-I6</f>
         <v>928.57599999999991</v>
@@ -852,12 +922,14 @@
         <v>1052.327</v>
       </c>
     </row>
-    <row r="8" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
+      <c r="D8" s="5">
+        <v>192.42699999999999</v>
+      </c>
       <c r="E8" s="5">
         <v>212.352</v>
       </c>
@@ -865,7 +937,9 @@
         <v>222.96299999999999</v>
       </c>
       <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
+      <c r="H8" s="5">
+        <v>202.107</v>
+      </c>
       <c r="I8" s="5">
         <v>205.75299999999999</v>
       </c>
@@ -873,12 +947,14 @@
         <v>214.66200000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
+      <c r="D9" s="5">
+        <v>137.42400000000001</v>
+      </c>
       <c r="E9" s="5">
         <v>159.28800000000001</v>
       </c>
@@ -886,7 +962,9 @@
         <v>150.82300000000001</v>
       </c>
       <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
+      <c r="H9" s="5">
+        <v>163.89599999999999</v>
+      </c>
       <c r="I9" s="5">
         <v>149.99</v>
       </c>
@@ -894,12 +972,14 @@
         <v>169.48</v>
       </c>
     </row>
-    <row r="10" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
+      <c r="D10" s="5">
+        <v>30.411000000000001</v>
+      </c>
       <c r="E10" s="5">
         <v>41.249000000000002</v>
       </c>
@@ -907,7 +987,9 @@
         <v>36.353999999999999</v>
       </c>
       <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
+      <c r="H10" s="5">
+        <v>40.582999999999998</v>
+      </c>
       <c r="I10" s="5">
         <v>37.899000000000001</v>
       </c>
@@ -915,12 +997,15 @@
         <v>60.204999999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
+      <c r="D11" s="5">
+        <f>+D10+D9+D8</f>
+        <v>360.262</v>
+      </c>
       <c r="E11" s="5">
         <f>+E10+E9+E8</f>
         <v>412.88900000000001</v>
@@ -930,7 +1015,10 @@
         <v>410.14</v>
       </c>
       <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
+      <c r="H11" s="5">
+        <f>+H10+H9+H8</f>
+        <v>406.58600000000001</v>
+      </c>
       <c r="I11" s="5">
         <f>+I10+I9+I8</f>
         <v>393.642</v>
@@ -940,12 +1028,15 @@
         <v>444.34699999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
+      <c r="D12" s="5">
+        <f>+D7-D11</f>
+        <v>131.32799999999997</v>
+      </c>
       <c r="E12" s="5">
         <f>+E7-E11</f>
         <v>186.31799999999998</v>
@@ -955,7 +1046,10 @@
         <v>269.51400000000001</v>
       </c>
       <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
+      <c r="H12" s="5">
+        <f>+H7-H11</f>
+        <v>390.98599999999988</v>
+      </c>
       <c r="I12" s="5">
         <f>+I7-I11</f>
         <v>534.93399999999997</v>
@@ -965,12 +1059,15 @@
         <v>607.98</v>
       </c>
     </row>
-    <row r="13" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
+      <c r="D13" s="5">
+        <f>-50.987+15.461</f>
+        <v>-35.526000000000003</v>
+      </c>
       <c r="E13" s="5">
         <v>-77.093000000000004</v>
       </c>
@@ -978,7 +1075,10 @@
         <v>-71.584000000000003</v>
       </c>
       <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
+      <c r="H13" s="5">
+        <f>-74.666+8.947</f>
+        <v>-65.718999999999994</v>
+      </c>
       <c r="I13" s="5">
         <f>-75.213+7.948</f>
         <v>-67.264999999999986</v>
@@ -988,12 +1088,15 @@
         <v>-92.855999999999995</v>
       </c>
     </row>
-    <row r="14" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
+      <c r="D14" s="5">
+        <f>+D12+D13</f>
+        <v>95.801999999999964</v>
+      </c>
       <c r="E14" s="5">
         <f>+E12+E13</f>
         <v>109.22499999999998</v>
@@ -1003,7 +1106,10 @@
         <v>197.93</v>
       </c>
       <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
+      <c r="H14" s="5">
+        <f>+H12+H13</f>
+        <v>325.26699999999988</v>
+      </c>
       <c r="I14" s="5">
         <f>+I12+I13</f>
         <v>467.66899999999998</v>
@@ -1013,12 +1119,14 @@
         <v>515.12400000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
+      <c r="D15" s="5">
+        <v>15.445</v>
+      </c>
       <c r="E15" s="5">
         <v>0.58599999999999997</v>
       </c>
@@ -1026,7 +1134,9 @@
         <v>6.6630000000000003</v>
       </c>
       <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
+      <c r="H15" s="5">
+        <v>15.298</v>
+      </c>
       <c r="I15" s="5">
         <v>33.249000000000002</v>
       </c>
@@ -1034,12 +1144,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
+      <c r="D16" s="5">
+        <f>+D14-D15</f>
+        <v>80.356999999999971</v>
+      </c>
       <c r="E16" s="5">
         <f>+E14-E15</f>
         <v>108.63899999999998</v>
@@ -1049,7 +1162,10 @@
         <v>191.267</v>
       </c>
       <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
+      <c r="H16" s="5">
+        <f>+H14-H15</f>
+        <v>309.96899999999988</v>
+      </c>
       <c r="I16" s="5">
         <f>+I14-I15</f>
         <v>434.41999999999996</v>
@@ -1059,9 +1175,13 @@
         <v>515.12400000000002</v>
       </c>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:84" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
         <v>27</v>
+      </c>
+      <c r="D17" s="4">
+        <f>+D16/D18</f>
+        <v>0.21935071157546074</v>
       </c>
       <c r="E17" s="4">
         <f>+E16/E18</f>
@@ -1071,6 +1191,10 @@
         <f>+F16/F18</f>
         <v>0.55042130466312889</v>
       </c>
+      <c r="H17" s="4">
+        <f>+H16/H18</f>
+        <v>0.89080715518778286</v>
+      </c>
       <c r="I17" s="4">
         <f>+I16/I18</f>
         <v>1.2475250840573942</v>
@@ -1080,12 +1204,14 @@
         <v>1.4869761506719363</v>
       </c>
     </row>
-    <row r="18" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:84" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
+      <c r="D18" s="5">
+        <v>366.34027500000002</v>
+      </c>
       <c r="E18" s="5">
         <v>356.90622200000001</v>
       </c>
@@ -1093,7 +1219,9 @@
         <v>347.49200000000002</v>
       </c>
       <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
+      <c r="H18" s="5">
+        <v>347.964201</v>
+      </c>
       <c r="I18" s="5">
         <v>348.22546299999999</v>
       </c>
@@ -1101,7 +1229,7 @@
         <v>346.42384800000002</v>
       </c>
     </row>
-    <row r="20" spans="2:10" s="11" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:84" s="11" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B20" s="6" t="s">
         <v>32</v>
       </c>
@@ -1109,8 +1237,14 @@
       <c r="D20" s="9"/>
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
+      <c r="G20" s="10">
+        <f>+G5/C5-1</f>
+        <v>0.47904333908764962</v>
+      </c>
+      <c r="H20" s="10">
+        <f>+H5/D5-1</f>
+        <v>0.43984190144834789</v>
+      </c>
       <c r="I20" s="10">
         <f>+I5/E5-1</f>
         <v>0.38643526917950233</v>
@@ -1119,24 +1253,342 @@
         <f>+J5/F5-1</f>
         <v>0.44008723738829136</v>
       </c>
-    </row>
-    <row r="23" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
+      <c r="K20" s="10">
+        <f>+K5/G5-1</f>
+        <v>0.31365683314195536</v>
+      </c>
+      <c r="L20" s="10">
+        <f t="shared" ref="L20:N20" si="0">+L5/H5-1</f>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="M20" s="10">
+        <f t="shared" si="0"/>
+        <v>0.29000000000000004</v>
+      </c>
+      <c r="N20" s="10">
+        <f t="shared" si="0"/>
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="R20" s="12">
+        <f>+R5/Q5-1</f>
+        <v>0.43439634709649777</v>
+      </c>
+      <c r="S20" s="12">
+        <f>+S5/R5-1</f>
+        <v>0.29469396600051656</v>
+      </c>
+    </row>
+    <row r="23" spans="2:84" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" s="5">
+        <v>288.66199999999998</v>
+      </c>
+      <c r="D23" s="5">
+        <f>518.456-C23</f>
+        <v>229.79400000000004</v>
+      </c>
+      <c r="E23" s="5">
+        <f>717.522-D23-C23</f>
+        <v>199.06600000000003</v>
+      </c>
+      <c r="F23" s="5">
+        <f>1061.51-E23-D23-C23</f>
+        <v>343.98799999999989</v>
+      </c>
+      <c r="G23" s="5">
+        <v>392.779</v>
+      </c>
+      <c r="H23" s="5">
+        <f>847.306-G23</f>
+        <v>454.52700000000004</v>
+      </c>
       <c r="I23" s="5">
         <f>1398.008-H23-G23</f>
-        <v>1398.008</v>
+        <v>550.702</v>
       </c>
       <c r="J23" s="5">
         <f>2099.011-I23-H23-G23</f>
         <v>701.00299999999993</v>
       </c>
-    </row>
-    <row r="24" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Q23" s="2">
+        <f>SUM(C23:F23)</f>
+        <v>1061.51</v>
+      </c>
+      <c r="R23" s="2">
+        <f>SUM(G23:J23)</f>
+        <v>2099.011</v>
+      </c>
+      <c r="S23" s="2">
+        <f>+S5*S26</f>
+        <v>3048.5174849999999</v>
+      </c>
+      <c r="T23" s="2">
+        <f>+S23*1.2</f>
+        <v>3658.2209819999998</v>
+      </c>
+      <c r="U23" s="2">
+        <f t="shared" ref="U23:CF23" si="1">+T23*1.2</f>
+        <v>4389.8651783999994</v>
+      </c>
+      <c r="V23" s="2">
+        <f t="shared" si="1"/>
+        <v>5267.8382140799995</v>
+      </c>
+      <c r="W23" s="2">
+        <f t="shared" si="1"/>
+        <v>6321.405856895999</v>
+      </c>
+      <c r="X23" s="2">
+        <f t="shared" si="1"/>
+        <v>7585.6870282751988</v>
+      </c>
+      <c r="Y23" s="2">
+        <f t="shared" si="1"/>
+        <v>9102.8244339302382</v>
+      </c>
+      <c r="Z23" s="2">
+        <f t="shared" si="1"/>
+        <v>10923.389320716286</v>
+      </c>
+      <c r="AA23" s="2">
+        <f t="shared" si="1"/>
+        <v>13108.067184859543</v>
+      </c>
+      <c r="AB23" s="2">
+        <f t="shared" si="1"/>
+        <v>15729.68062183145</v>
+      </c>
+      <c r="AC23" s="2">
+        <f t="shared" si="1"/>
+        <v>18875.616746197738</v>
+      </c>
+      <c r="AD23" s="2">
+        <f t="shared" si="1"/>
+        <v>22650.740095437286</v>
+      </c>
+      <c r="AE23" s="2">
+        <f t="shared" si="1"/>
+        <v>27180.888114524743</v>
+      </c>
+      <c r="AF23" s="2">
+        <f t="shared" si="1"/>
+        <v>32617.06573742969</v>
+      </c>
+      <c r="AG23" s="2">
+        <f t="shared" si="1"/>
+        <v>39140.478884915625</v>
+      </c>
+      <c r="AH23" s="2">
+        <f t="shared" si="1"/>
+        <v>46968.574661898747</v>
+      </c>
+      <c r="AI23" s="2">
+        <f t="shared" si="1"/>
+        <v>56362.289594278496</v>
+      </c>
+      <c r="AJ23" s="2">
+        <f t="shared" si="1"/>
+        <v>67634.747513134193</v>
+      </c>
+      <c r="AK23" s="2">
+        <f t="shared" si="1"/>
+        <v>81161.697015761034</v>
+      </c>
+      <c r="AL23" s="2">
+        <f t="shared" si="1"/>
+        <v>97394.036418913238</v>
+      </c>
+      <c r="AM23" s="2">
+        <f t="shared" si="1"/>
+        <v>116872.84370269589</v>
+      </c>
+      <c r="AN23" s="2">
+        <f t="shared" si="1"/>
+        <v>140247.41244323505</v>
+      </c>
+      <c r="AO23" s="2">
+        <f t="shared" si="1"/>
+        <v>168296.89493188207</v>
+      </c>
+      <c r="AP23" s="2">
+        <f t="shared" si="1"/>
+        <v>201956.27391825846</v>
+      </c>
+      <c r="AQ23" s="2">
+        <f t="shared" si="1"/>
+        <v>242347.52870191014</v>
+      </c>
+      <c r="AR23" s="2">
+        <f t="shared" si="1"/>
+        <v>290817.03444229218</v>
+      </c>
+      <c r="AS23" s="2">
+        <f t="shared" si="1"/>
+        <v>348980.44133075059</v>
+      </c>
+      <c r="AT23" s="2">
+        <f t="shared" si="1"/>
+        <v>418776.52959690068</v>
+      </c>
+      <c r="AU23" s="2">
+        <f t="shared" si="1"/>
+        <v>502531.83551628079</v>
+      </c>
+      <c r="AV23" s="2">
+        <f t="shared" si="1"/>
+        <v>603038.2026195369</v>
+      </c>
+      <c r="AW23" s="2">
+        <f t="shared" si="1"/>
+        <v>723645.84314344428</v>
+      </c>
+      <c r="AX23" s="2">
+        <f t="shared" si="1"/>
+        <v>868375.01177213306</v>
+      </c>
+      <c r="AY23" s="2">
+        <f t="shared" si="1"/>
+        <v>1042050.0141265596</v>
+      </c>
+      <c r="AZ23" s="2">
+        <f t="shared" si="1"/>
+        <v>1250460.0169518716</v>
+      </c>
+      <c r="BA23" s="2">
+        <f t="shared" si="1"/>
+        <v>1500552.0203422459</v>
+      </c>
+      <c r="BB23" s="2">
+        <f t="shared" si="1"/>
+        <v>1800662.424410695</v>
+      </c>
+      <c r="BC23" s="2">
+        <f t="shared" si="1"/>
+        <v>2160794.9092928339</v>
+      </c>
+      <c r="BD23" s="2">
+        <f t="shared" si="1"/>
+        <v>2592953.8911514007</v>
+      </c>
+      <c r="BE23" s="2">
+        <f t="shared" si="1"/>
+        <v>3111544.6693816809</v>
+      </c>
+      <c r="BF23" s="2">
+        <f t="shared" si="1"/>
+        <v>3733853.603258017</v>
+      </c>
+      <c r="BG23" s="2">
+        <f t="shared" si="1"/>
+        <v>4480624.3239096198</v>
+      </c>
+      <c r="BH23" s="2">
+        <f t="shared" si="1"/>
+        <v>5376749.1886915434</v>
+      </c>
+      <c r="BI23" s="2">
+        <f t="shared" si="1"/>
+        <v>6452099.0264298515</v>
+      </c>
+      <c r="BJ23" s="2">
+        <f t="shared" si="1"/>
+        <v>7742518.8317158213</v>
+      </c>
+      <c r="BK23" s="2">
+        <f t="shared" si="1"/>
+        <v>9291022.5980589855</v>
+      </c>
+      <c r="BL23" s="2">
+        <f t="shared" si="1"/>
+        <v>11149227.117670782</v>
+      </c>
+      <c r="BM23" s="2">
+        <f t="shared" si="1"/>
+        <v>13379072.541204939</v>
+      </c>
+      <c r="BN23" s="2">
+        <f t="shared" si="1"/>
+        <v>16054887.049445925</v>
+      </c>
+      <c r="BO23" s="2">
+        <f t="shared" si="1"/>
+        <v>19265864.459335111</v>
+      </c>
+      <c r="BP23" s="2">
+        <f t="shared" si="1"/>
+        <v>23119037.351202134</v>
+      </c>
+      <c r="BQ23" s="2">
+        <f t="shared" si="1"/>
+        <v>27742844.821442559</v>
+      </c>
+      <c r="BR23" s="2">
+        <f t="shared" si="1"/>
+        <v>33291413.78573107</v>
+      </c>
+      <c r="BS23" s="2">
+        <f t="shared" si="1"/>
+        <v>39949696.542877279</v>
+      </c>
+      <c r="BT23" s="2">
+        <f t="shared" si="1"/>
+        <v>47939635.851452731</v>
+      </c>
+      <c r="BU23" s="2">
+        <f t="shared" si="1"/>
+        <v>57527563.021743275</v>
+      </c>
+      <c r="BV23" s="2">
+        <f t="shared" si="1"/>
+        <v>69033075.626091927</v>
+      </c>
+      <c r="BW23" s="2">
+        <f t="shared" si="1"/>
+        <v>82839690.751310304</v>
+      </c>
+      <c r="BX23" s="2">
+        <f t="shared" si="1"/>
+        <v>99407628.901572362</v>
+      </c>
+      <c r="BY23" s="2">
+        <f t="shared" si="1"/>
+        <v>119289154.68188684</v>
+      </c>
+      <c r="BZ23" s="2">
+        <f t="shared" si="1"/>
+        <v>143146985.6182642</v>
+      </c>
+      <c r="CA23" s="2">
+        <f t="shared" si="1"/>
+        <v>171776382.74191704</v>
+      </c>
+      <c r="CB23" s="2">
+        <f t="shared" si="1"/>
+        <v>206131659.29030046</v>
+      </c>
+      <c r="CC23" s="2">
+        <f t="shared" si="1"/>
+        <v>247357991.14836055</v>
+      </c>
+      <c r="CD23" s="2">
+        <f t="shared" si="1"/>
+        <v>296829589.37803262</v>
+      </c>
+      <c r="CE23" s="2">
+        <f t="shared" si="1"/>
+        <v>356195507.25363916</v>
+      </c>
+      <c r="CF23" s="2">
+        <f t="shared" si="1"/>
+        <v>427434608.70436698</v>
+      </c>
+    </row>
+    <row r="24" spans="2:84" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
@@ -1149,7 +1601,10 @@
       </c>
       <c r="J24" s="5"/>
     </row>
-    <row r="25" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:84" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
@@ -1158,11 +1613,81 @@
       <c r="H25" s="5"/>
       <c r="I25" s="5">
         <f>+I23+I24</f>
-        <v>1379.7190000000001</v>
+        <v>532.41300000000001</v>
       </c>
       <c r="J25" s="5">
         <f>+J23+J24</f>
         <v>701.00299999999993</v>
+      </c>
+    </row>
+    <row r="26" spans="2:84" x14ac:dyDescent="0.25">
+      <c r="B26" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q26" s="13">
+        <f>+Q23/Q5</f>
+        <v>0.32332679578701384</v>
+      </c>
+      <c r="R26" s="13">
+        <f>+R23/R5</f>
+        <v>0.44572105779946186</v>
+      </c>
+      <c r="S26" s="13">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="28" spans="2:84" x14ac:dyDescent="0.25">
+      <c r="R28" s="13">
+        <f>+R23/Q23-1</f>
+        <v>0.97738221966820849</v>
+      </c>
+      <c r="S28" s="13">
+        <f>+S23/R23-1</f>
+        <v>0.45235898477902214</v>
+      </c>
+    </row>
+    <row r="29" spans="2:84" x14ac:dyDescent="0.25">
+      <c r="T29" s="1">
+        <f>+T23*20</f>
+        <v>73164.419639999993</v>
+      </c>
+      <c r="X29" s="1">
+        <f>+X23*20</f>
+        <v>151713.74056550398</v>
+      </c>
+      <c r="AB29" s="1">
+        <f>+AB23*20</f>
+        <v>314593.61243662902</v>
+      </c>
+      <c r="AH29" s="1">
+        <f>+AH23*20</f>
+        <v>939371.49323797494</v>
+      </c>
+      <c r="AM29" s="1">
+        <f>+AM23*20</f>
+        <v>2337456.8740539178</v>
+      </c>
+    </row>
+    <row r="30" spans="2:84" x14ac:dyDescent="0.25">
+      <c r="T30" s="1">
+        <f>PV(11%,1,0,-T29)</f>
+        <v>65913.891567567553</v>
+      </c>
+      <c r="X30" s="1">
+        <f>PV(11%,5,0,-X29)</f>
+        <v>90034.720823329961</v>
+      </c>
+      <c r="AB30" s="1">
+        <f>PV(11%,9,0,-AB29)</f>
+        <v>122982.43603816564</v>
+      </c>
+      <c r="AH30" s="1">
+        <f>PV(11%,15,0,-AH29)</f>
+        <v>196332.72520613723</v>
+      </c>
+      <c r="AM30" s="1">
+        <f>PV(11%,20,0,-AM29)</f>
+        <v>289923.90874245093</v>
       </c>
     </row>
   </sheetData>

--- a/APP.xlsx
+++ b/APP.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{025AE905-E6B3-47B2-A7FC-4CE056ACD9B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{010CF562-452D-400F-B4C5-7BADF1FE299D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23230" yWindow="1680" windowWidth="14670" windowHeight="15600" activeTab="1" xr2:uid="{9D3513DD-3418-4219-8827-A91F6C35E82B}"/>
+    <workbookView xWindow="56990" yWindow="4350" windowWidth="18720" windowHeight="17090" xr2:uid="{9D3513DD-3418-4219-8827-A91F6C35E82B}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -34,6 +34,45 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={8776E06D-3F74-4C5D-B909-5F514E8271F4}</author>
+    <author>tc={5A58F8D1-7321-4C11-BE33-FD86458168C1}</author>
+    <author>tc={752097DE-873B-4560-9FF1-60771E356C8D}</author>
+  </authors>
+  <commentList>
+    <comment ref="K5" authorId="0" shapeId="0" xr:uid="{8776E06D-3F74-4C5D-B909-5F514E8271F4}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Q424 guidance: 1355-1385
+5/7/25 consensus 1380
+5/7/25 Godel eps 1.44, BB 1.46</t>
+      </text>
+    </comment>
+    <comment ref="L5" authorId="1" shapeId="0" xr:uid="{5A58F8D1-7321-4C11-BE33-FD86458168C1}">
+      <text>
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    5/7/25 consensus: 1400m, BB 1390m
+</t>
+      </text>
+    </comment>
+    <comment ref="S5" authorId="2" shapeId="0" xr:uid="{752097DE-873B-4560-9FF1-60771E356C8D}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    5/7/25 BB, GD consensus 5.63B</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -302,7 +341,63 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>36909</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>36909</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>120025</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="2" name="Straight Connector 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2E1D8CB-02FD-493A-A829-5E8834BBD1EA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11638083" y="0"/>
+          <a:ext cx="0" cy="5415373"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Martin Shkreli" id="{CDCF3CD3-C500-4AF0-9498-24228DD1F3D6}" userId="9ffda80931a57275" providerId="Windows Live"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -620,11 +715,30 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="K5" dT="2025-05-07T17:42:44.05" personId="{CDCF3CD3-C500-4AF0-9498-24228DD1F3D6}" id="{8776E06D-3F74-4C5D-B909-5F514E8271F4}">
+    <text>Q424 guidance: 1355-1385
+5/7/25 consensus 1380
+5/7/25 Godel eps 1.44, BB 1.46</text>
+  </threadedComment>
+  <threadedComment ref="L5" dT="2025-05-07T17:46:49.68" personId="{CDCF3CD3-C500-4AF0-9498-24228DD1F3D6}" id="{5A58F8D1-7321-4C11-BE33-FD86458168C1}">
+    <text xml:space="preserve">5/7/25 consensus: 1400m, BB 1390m
+</text>
+  </threadedComment>
+  <threadedComment ref="S5" dT="2025-05-07T17:47:14.90" personId="{CDCF3CD3-C500-4AF0-9498-24228DD1F3D6}" id="{752097DE-873B-4560-9FF1-60771E356C8D}">
+    <text>5/7/25 BB, GD consensus 5.63B</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F8FB4EB-6472-46BD-A0D3-B5A7B85DE441}">
   <dimension ref="J2:L7"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -633,7 +747,7 @@
         <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>295</v>
+        <v>300.52</v>
       </c>
     </row>
     <row r="3" spans="10:12" x14ac:dyDescent="0.25">
@@ -654,7 +768,7 @@
       </c>
       <c r="K4" s="2">
         <f>+K2*K3</f>
-        <v>98999.582180000012</v>
+        <v>100852.04893808</v>
       </c>
     </row>
     <row r="5" spans="10:12" x14ac:dyDescent="0.25">
@@ -685,7 +799,7 @@
       </c>
       <c r="K7" s="2">
         <f>+K4-K5+K6</f>
-        <v>101906.44218000001</v>
+        <v>103758.90893808</v>
       </c>
     </row>
   </sheetData>
@@ -694,14 +808,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D786880E-57D9-4582-ABFA-84647DFD24DC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D786880E-57D9-4582-ABFA-84647DFD24DC}">
   <dimension ref="A1:CF30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="P3" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="X3" sqref="X3"/>
+      <selection pane="bottomRight" activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -709,19 +823,19 @@
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.1796875" bestFit="1" customWidth="1"/>
     <col min="3" max="10" width="9.1796875" style="3"/>
-    <col min="20" max="20" width="9.6328125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="10.26953125" customWidth="1"/>
+    <col min="20" max="20" width="9.26953125" customWidth="1"/>
+    <col min="24" max="24" width="8.26953125" customWidth="1"/>
     <col min="28" max="28" width="10.08984375" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="10.08984375" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="11.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C2" s="3" t="s">
         <v>9</v>
       </c>
@@ -767,8 +881,17 @@
       <c r="S2">
         <v>2025</v>
       </c>
-    </row>
-    <row r="3" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T2">
+        <v>2026</v>
+      </c>
+      <c r="U2">
+        <v>2027</v>
+      </c>
+      <c r="V2">
+        <v>2028</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>34</v>
       </c>
@@ -785,11 +908,13 @@
         <v>999.48699999999997</v>
       </c>
       <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
+      <c r="L3" s="5">
+        <v>1200</v>
+      </c>
       <c r="M3" s="5"/>
       <c r="N3" s="5"/>
     </row>
-    <row r="4" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>33</v>
       </c>
@@ -806,11 +931,13 @@
         <v>373.29199999999997</v>
       </c>
       <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
+      <c r="L4" s="5">
+        <v>300</v>
+      </c>
       <c r="M4" s="5"/>
       <c r="N4" s="5"/>
     </row>
-    <row r="5" spans="1:19" s="6" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" s="6" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B5" s="6" t="s">
         <v>8</v>
       </c>
@@ -866,7 +993,7 @@
         <v>6097.0349699999997</v>
       </c>
     </row>
-    <row r="6" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>16</v>
       </c>
@@ -891,7 +1018,7 @@
         <v>320.452</v>
       </c>
     </row>
-    <row r="7" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>17</v>
       </c>
@@ -922,7 +1049,7 @@
         <v>1052.327</v>
       </c>
     </row>
-    <row r="8" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>18</v>
       </c>
@@ -947,7 +1074,7 @@
         <v>214.66200000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>19</v>
       </c>
@@ -972,7 +1099,7 @@
         <v>169.48</v>
       </c>
     </row>
-    <row r="10" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>20</v>
       </c>
@@ -997,7 +1124,7 @@
         <v>60.204999999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>21</v>
       </c>
@@ -1028,7 +1155,7 @@
         <v>444.34699999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>22</v>
       </c>
@@ -1059,7 +1186,7 @@
         <v>607.98</v>
       </c>
     </row>
-    <row r="13" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
         <v>23</v>
       </c>
@@ -1088,7 +1215,7 @@
         <v>-92.855999999999995</v>
       </c>
     </row>
-    <row r="14" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
         <v>24</v>
       </c>
@@ -1119,7 +1246,7 @@
         <v>515.12400000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
         <v>25</v>
       </c>
@@ -1144,7 +1271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
         <v>26</v>
       </c>
@@ -1647,14 +1774,8 @@
       </c>
     </row>
     <row r="29" spans="2:84" x14ac:dyDescent="0.25">
-      <c r="T29" s="1">
-        <f>+T23*20</f>
-        <v>73164.419639999993</v>
-      </c>
-      <c r="X29" s="1">
-        <f>+X23*20</f>
-        <v>151713.74056550398</v>
-      </c>
+      <c r="T29" s="1"/>
+      <c r="X29" s="1"/>
       <c r="AB29" s="1">
         <f>+AB23*20</f>
         <v>314593.61243662902</v>
@@ -1669,14 +1790,8 @@
       </c>
     </row>
     <row r="30" spans="2:84" x14ac:dyDescent="0.25">
-      <c r="T30" s="1">
-        <f>PV(11%,1,0,-T29)</f>
-        <v>65913.891567567553</v>
-      </c>
-      <c r="X30" s="1">
-        <f>PV(11%,5,0,-X29)</f>
-        <v>90034.720823329961</v>
-      </c>
+      <c r="T30" s="1"/>
+      <c r="X30" s="1"/>
       <c r="AB30" s="1">
         <f>PV(11%,9,0,-AB29)</f>
         <v>122982.43603816564</v>
@@ -1696,5 +1811,6 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>